--- a/04_memo/map13.xlsx
+++ b/04_memo/map13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EB02DE5-9461-4927-A444-D928AAB49900}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A497FD24-EF0B-428F-B35C-103FC92A3C4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,13 +203,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -217,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,12 +388,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -648,7 +635,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -658,10 +645,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -709,7 +693,108 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="910">
+  <dxfs count="923">
+    <dxf>
+      <fill>
+        <patternFill patternType="gray0625">
+          <bgColor theme="2" tint="-9.9887081514938816E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF33CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="gray0625">
@@ -8119,7 +8204,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8246,10 +8331,10 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>10</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="1">
@@ -8258,8 +8343,8 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="4">
-        <v>7</v>
+      <c r="G5" s="3">
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -8268,19 +8353,19 @@
         <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O5" s="1">
         <v>1</v>
@@ -8289,7 +8374,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
         <v>0</v>
@@ -8318,7 +8403,7 @@
       <c r="B6" s="1">
         <v>0</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0</v>
       </c>
       <c r="D6" s="1">
@@ -8330,7 +8415,7 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0</v>
       </c>
       <c r="H6" s="1">
@@ -8340,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
@@ -8352,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -8390,7 +8475,7 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0</v>
       </c>
       <c r="D7" s="1">
@@ -8402,7 +8487,7 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0</v>
       </c>
       <c r="H7" s="1">
@@ -8412,7 +8497,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -8424,7 +8509,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O7" s="1">
         <v>1</v>
@@ -8462,7 +8547,7 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>0</v>
       </c>
       <c r="D8" s="1">
@@ -8474,7 +8559,7 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="1">
@@ -8484,7 +8569,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
@@ -8496,7 +8581,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O8" s="1">
         <v>1</v>
@@ -8535,18 +8620,18 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="1">
@@ -8555,20 +8640,20 @@
       <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="J9" s="1">
+        <v>11</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
+      <c r="N9" s="1">
+        <v>11</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
@@ -8603,7 +8688,7 @@
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>0</v>
       </c>
       <c r="C10" s="1">
@@ -8628,7 +8713,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K10" s="1">
         <v>3</v>
@@ -8640,7 +8725,7 @@
         <v>3</v>
       </c>
       <c r="N10" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O10" s="1">
         <v>1</v>
@@ -8675,7 +8760,7 @@
       <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>0</v>
       </c>
       <c r="C11" s="1">
@@ -8700,7 +8785,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K11" s="1">
         <v>3</v>
@@ -8712,7 +8797,7 @@
         <v>3</v>
       </c>
       <c r="N11" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O11" s="1">
         <v>0</v>
@@ -8747,7 +8832,7 @@
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>0</v>
       </c>
       <c r="C12" s="1">
@@ -8772,7 +8857,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K12" s="1">
         <v>3</v>
@@ -8784,7 +8869,7 @@
         <v>3</v>
       </c>
       <c r="N12" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O12" s="1">
         <v>1</v>
@@ -8825,16 +8910,16 @@
       <c r="C13" s="1">
         <v>7</v>
       </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
         <v>10</v>
       </c>
       <c r="H13" s="1">
@@ -8844,19 +8929,19 @@
         <v>1</v>
       </c>
       <c r="J13" s="1">
+        <v>11</v>
+      </c>
+      <c r="K13" s="1">
         <v>6</v>
       </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
       <c r="L13" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N13" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O13" s="1">
         <v>1</v>
@@ -8877,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V13" s="1">
         <v>0</v>
@@ -8894,7 +8979,7 @@
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>0</v>
       </c>
       <c r="D14" s="1">
@@ -8916,7 +9001,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K14" s="1">
         <v>1</v>
@@ -8928,7 +9013,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O14" s="1">
         <v>1</v>
@@ -8966,7 +9051,7 @@
       <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>0</v>
       </c>
       <c r="D15" s="1">
@@ -8988,7 +9073,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -9000,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O15" s="1">
         <v>1</v>
@@ -9038,7 +9123,7 @@
       <c r="B16" s="1">
         <v>1</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>0</v>
       </c>
       <c r="D16" s="1">
@@ -9060,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
@@ -9072,7 +9157,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O16" s="1">
         <v>0</v>
@@ -9110,20 +9195,20 @@
       <c r="B17" s="1">
         <v>0</v>
       </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>7</v>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
@@ -9132,7 +9217,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
@@ -9144,7 +9229,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O17" s="1">
         <v>1</v>
@@ -9153,7 +9238,7 @@
         <v>1</v>
       </c>
       <c r="Q17" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
@@ -9258,7 +9343,48 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="M10:N10 A18:C18 H12:K13 A15:B15 E15:F15 E18:I18 A12 E12:F12 H15:I15 M9 C12 A17:B17">
+  <conditionalFormatting sqref="A18:C18 H12:K13 A15:B15 E15:F15 E18:I18 A12 E12:F12 H15:I15 M9:M10 C12 A17:B17">
+    <cfRule type="cellIs" dxfId="922" priority="1548" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="921" priority="1549" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="920" priority="1550" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="919" priority="1551" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="918" priority="1552" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="917" priority="1553" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="916" priority="1554" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="915" priority="1555" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="914" priority="1556" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="913" priority="1557" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="912" priority="1558" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="911" priority="1559" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="910" priority="1560" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9 J10:L10 H11:K11 A4:I4 A18:I18 H17:I17 A13:C13 H13:I15 E13:F17 H7:I9 H5:I5 A9:C9 E5:F8 A10:A12 A5:B8 C10:I12 A14:B17">
     <cfRule type="cellIs" dxfId="909" priority="1535" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -9299,7 +9425,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9 J10:L10 H11:K11 A4:I4 A18:I18 H17:I17 A13:C13 H13:I15 E13:F17 H7:I9 H5:I5 A9:C9 E5:F8 A10:A12 A5:B8 C10:I12 A14:B17">
+  <conditionalFormatting sqref="L11:M12 M13">
     <cfRule type="cellIs" dxfId="896" priority="1522" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -9340,48 +9466,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:N12 L11:M11 M13:N13">
-    <cfRule type="cellIs" dxfId="883" priority="1509" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="882" priority="1510" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="881" priority="1511" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="880" priority="1512" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="879" priority="1513" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="878" priority="1514" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="877" priority="1515" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="876" priority="1516" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="875" priority="1517" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="874" priority="1518" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="873" priority="1519" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="872" priority="1520" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="871" priority="1521" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
+  <conditionalFormatting sqref="J9">
     <cfRule type="cellIs" dxfId="870" priority="1366" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -9422,48 +9507,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="857" priority="1353" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="856" priority="1354" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="855" priority="1355" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="854" priority="1356" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="853" priority="1357" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="852" priority="1358" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="851" priority="1359" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="850" priority="1360" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="849" priority="1361" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="848" priority="1362" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="847" priority="1363" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="846" priority="1364" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="845" priority="1365" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N11">
+  <conditionalFormatting sqref="L9">
     <cfRule type="cellIs" dxfId="844" priority="1340" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -9504,7 +9548,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
+  <conditionalFormatting sqref="L13">
     <cfRule type="cellIs" dxfId="831" priority="1327" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -9545,7 +9589,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
+  <conditionalFormatting sqref="H9 A9:C9">
     <cfRule type="cellIs" dxfId="818" priority="1314" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -9586,130 +9630,130 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9 A9:C9">
-    <cfRule type="cellIs" dxfId="805" priority="1301" operator="equal">
+  <conditionalFormatting sqref="E5:F5 H5">
+    <cfRule type="cellIs" dxfId="805" priority="1236" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="804" priority="1302" operator="equal">
+    <cfRule type="cellIs" dxfId="804" priority="1237" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="803" priority="1303" operator="equal">
+    <cfRule type="cellIs" dxfId="803" priority="1238" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="802" priority="1304" operator="equal">
+    <cfRule type="cellIs" dxfId="802" priority="1239" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="801" priority="1305" operator="equal">
+    <cfRule type="cellIs" dxfId="801" priority="1240" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="800" priority="1306" operator="equal">
+    <cfRule type="cellIs" dxfId="800" priority="1241" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="799" priority="1307" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="798" priority="1308" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="797" priority="1309" operator="equal">
+    <cfRule type="cellIs" dxfId="799" priority="1242" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="798" priority="1243" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="797" priority="1244" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="796" priority="1310" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="795" priority="1311" operator="equal">
+    <cfRule type="cellIs" dxfId="796" priority="1245" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="795" priority="1246" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="794" priority="1312" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="793" priority="1313" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:F5 H5">
-    <cfRule type="cellIs" dxfId="792" priority="1223" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="791" priority="1224" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="790" priority="1225" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="789" priority="1226" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="788" priority="1227" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="787" priority="1228" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="786" priority="1229" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="785" priority="1230" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="784" priority="1231" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="783" priority="1232" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="782" priority="1233" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="781" priority="1234" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="780" priority="1235" operator="equal">
+    <cfRule type="cellIs" dxfId="794" priority="1247" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="793" priority="1248" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:F17 H17:I17">
-    <cfRule type="cellIs" dxfId="779" priority="1158" operator="equal">
+    <cfRule type="cellIs" dxfId="792" priority="1171" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="778" priority="1159" operator="equal">
+    <cfRule type="cellIs" dxfId="791" priority="1172" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="777" priority="1160" operator="equal">
+    <cfRule type="cellIs" dxfId="790" priority="1173" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="776" priority="1161" operator="equal">
+    <cfRule type="cellIs" dxfId="789" priority="1174" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="775" priority="1162" operator="equal">
+    <cfRule type="cellIs" dxfId="788" priority="1175" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="774" priority="1163" operator="equal">
+    <cfRule type="cellIs" dxfId="787" priority="1176" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="773" priority="1164" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="772" priority="1165" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="771" priority="1166" operator="equal">
+    <cfRule type="cellIs" dxfId="786" priority="1177" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="785" priority="1178" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="784" priority="1179" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="770" priority="1167" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="769" priority="1168" operator="equal">
+    <cfRule type="cellIs" dxfId="783" priority="1180" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="782" priority="1181" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="768" priority="1169" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="767" priority="1170" operator="equal">
+    <cfRule type="cellIs" dxfId="781" priority="1182" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="780" priority="1183" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
+    <cfRule type="cellIs" dxfId="779" priority="976" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="778" priority="977" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="777" priority="978" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="776" priority="979" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="775" priority="980" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="774" priority="981" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="773" priority="982" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="772" priority="983" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="771" priority="984" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="770" priority="985" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="769" priority="986" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="768" priority="987" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="767" priority="988" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:G12">
     <cfRule type="cellIs" dxfId="766" priority="963" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -9750,7 +9794,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G12">
+  <conditionalFormatting sqref="A11 E11:F11 C11">
     <cfRule type="cellIs" dxfId="753" priority="950" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -9791,7 +9835,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11 E11:F11 C11">
+  <conditionalFormatting sqref="D10:D12">
     <cfRule type="cellIs" dxfId="740" priority="937" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -9832,89 +9876,89 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D12">
-    <cfRule type="cellIs" dxfId="727" priority="924" operator="equal">
+  <conditionalFormatting sqref="D4">
+    <cfRule type="cellIs" dxfId="727" priority="911" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="726" priority="925" operator="equal">
+    <cfRule type="cellIs" dxfId="726" priority="912" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="725" priority="926" operator="equal">
+    <cfRule type="cellIs" dxfId="725" priority="913" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="724" priority="927" operator="equal">
+    <cfRule type="cellIs" dxfId="724" priority="914" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="723" priority="928" operator="equal">
+    <cfRule type="cellIs" dxfId="723" priority="915" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="722" priority="929" operator="equal">
+    <cfRule type="cellIs" dxfId="722" priority="916" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="721" priority="930" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="720" priority="931" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="719" priority="932" operator="equal">
+    <cfRule type="cellIs" dxfId="721" priority="917" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="720" priority="918" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="719" priority="919" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="718" priority="933" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="717" priority="934" operator="equal">
+    <cfRule type="cellIs" dxfId="718" priority="920" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="717" priority="921" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="716" priority="935" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="715" priority="936" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="714" priority="898" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="713" priority="899" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="712" priority="900" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="711" priority="901" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="710" priority="902" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="709" priority="903" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="708" priority="904" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="707" priority="905" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="706" priority="906" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="705" priority="907" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="704" priority="908" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="703" priority="909" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="702" priority="910" operator="equal">
+    <cfRule type="cellIs" dxfId="716" priority="922" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="715" priority="923" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14 H14:I14 E14:F14">
+    <cfRule type="cellIs" dxfId="714" priority="885" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="713" priority="886" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="712" priority="887" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="711" priority="888" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="710" priority="889" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="709" priority="890" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="708" priority="891" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="707" priority="892" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="706" priority="893" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="705" priority="894" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="704" priority="895" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="703" priority="896" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="702" priority="897" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I5 I7:I9">
     <cfRule type="cellIs" dxfId="701" priority="872" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -9955,48 +9999,48 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I5 I7:I9">
-    <cfRule type="cellIs" dxfId="688" priority="859" operator="equal">
+  <conditionalFormatting sqref="A16:B16 E16:F16">
+    <cfRule type="cellIs" dxfId="688" priority="833" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="687" priority="860" operator="equal">
+    <cfRule type="cellIs" dxfId="687" priority="834" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="686" priority="861" operator="equal">
+    <cfRule type="cellIs" dxfId="686" priority="835" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="685" priority="862" operator="equal">
+    <cfRule type="cellIs" dxfId="685" priority="836" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="684" priority="863" operator="equal">
+    <cfRule type="cellIs" dxfId="684" priority="837" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="683" priority="864" operator="equal">
+    <cfRule type="cellIs" dxfId="683" priority="838" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="682" priority="865" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="681" priority="866" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="680" priority="867" operator="equal">
+    <cfRule type="cellIs" dxfId="682" priority="839" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="681" priority="840" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="680" priority="841" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="679" priority="868" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="678" priority="869" operator="equal">
+    <cfRule type="cellIs" dxfId="679" priority="842" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="678" priority="843" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="677" priority="870" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="676" priority="871" operator="equal">
+    <cfRule type="cellIs" dxfId="677" priority="844" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="676" priority="845" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:B16 E16:F16">
+  <conditionalFormatting sqref="H10:I10">
     <cfRule type="cellIs" dxfId="675" priority="820" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10037,7 +10081,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:I10">
+  <conditionalFormatting sqref="G4 G10">
     <cfRule type="cellIs" dxfId="662" priority="807" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10078,89 +10122,89 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4 G10">
-    <cfRule type="cellIs" dxfId="649" priority="794" operator="equal">
+  <conditionalFormatting sqref="A13:C13 E13:F13">
+    <cfRule type="cellIs" dxfId="649" priority="742" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="648" priority="795" operator="equal">
+    <cfRule type="cellIs" dxfId="648" priority="743" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="647" priority="796" operator="equal">
+    <cfRule type="cellIs" dxfId="647" priority="744" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="646" priority="797" operator="equal">
+    <cfRule type="cellIs" dxfId="646" priority="745" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="645" priority="798" operator="equal">
+    <cfRule type="cellIs" dxfId="645" priority="746" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="644" priority="799" operator="equal">
+    <cfRule type="cellIs" dxfId="644" priority="747" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="643" priority="800" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="642" priority="801" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="641" priority="802" operator="equal">
+    <cfRule type="cellIs" dxfId="643" priority="748" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="642" priority="749" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="641" priority="750" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="640" priority="803" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="639" priority="804" operator="equal">
+    <cfRule type="cellIs" dxfId="640" priority="751" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="639" priority="752" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="638" priority="805" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="637" priority="806" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:C13 E13:F13">
-    <cfRule type="cellIs" dxfId="636" priority="729" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="635" priority="730" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="634" priority="731" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="633" priority="732" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="632" priority="733" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="631" priority="734" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="630" priority="735" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="629" priority="736" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="628" priority="737" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="627" priority="738" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="626" priority="739" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="625" priority="740" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="624" priority="741" operator="equal">
+    <cfRule type="cellIs" dxfId="638" priority="753" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="637" priority="754" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6 E6:F6">
+    <cfRule type="cellIs" dxfId="636" priority="651" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="635" priority="652" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="634" priority="653" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="633" priority="654" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="632" priority="655" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="631" priority="656" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="630" priority="657" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="629" priority="658" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="628" priority="659" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="627" priority="660" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="626" priority="661" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="625" priority="662" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="624" priority="663" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:W4 O10:Q12 O18:W18 O5:P5 R6 O7:P9 U9:W9 O17:P17 O13:P15 R14 U13:W13 S10 V5:W8 W10:W12 V14:W17 R8 S12 U12 U10 R16">
     <cfRule type="cellIs" dxfId="623" priority="638" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10201,7 +10245,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:W4 O10:Q12 O18:W18 O5:P5 R6 O7:P9 U9:W9 O17:P17 O13:P15 R14 U13:W13 S10 V5:W8 W10:W12 V14:W17 R8 S12 U12 U10 R16">
+  <conditionalFormatting sqref="J4:K4 J8:M8 J6 M4:N4 K7:M8">
     <cfRule type="cellIs" dxfId="610" priority="625" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10242,7 +10286,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:K4 J8:N8 J6 M4:N4 K7:M8">
+  <conditionalFormatting sqref="J18:N18 J14:J16 J17:M17">
     <cfRule type="cellIs" dxfId="597" priority="612" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10283,7 +10327,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17:N18 J14:J16 N14:N16">
+  <conditionalFormatting sqref="J7:M7">
     <cfRule type="cellIs" dxfId="584" priority="599" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10324,7 +10368,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:N7">
+  <conditionalFormatting sqref="J5:M5 J5:J17">
     <cfRule type="cellIs" dxfId="571" priority="586" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10365,7 +10409,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:N5">
+  <conditionalFormatting sqref="L4">
     <cfRule type="cellIs" dxfId="558" priority="573" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10406,7 +10450,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
+  <conditionalFormatting sqref="H6:I6">
     <cfRule type="cellIs" dxfId="545" priority="560" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10447,7 +10491,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:I6">
+  <conditionalFormatting sqref="O6:P6">
     <cfRule type="cellIs" dxfId="532" priority="547" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10488,7 +10532,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6:P6">
+  <conditionalFormatting sqref="H16:I16">
     <cfRule type="cellIs" dxfId="519" priority="534" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10529,7 +10573,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16:I16">
+  <conditionalFormatting sqref="O16:P16">
     <cfRule type="cellIs" dxfId="506" priority="521" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10570,48 +10614,48 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O16:P16">
-    <cfRule type="cellIs" dxfId="493" priority="508" operator="equal">
+  <conditionalFormatting sqref="Q5:Q7">
+    <cfRule type="cellIs" dxfId="493" priority="495" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="509" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="496" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="491" priority="510" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="497" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="511" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="498" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="512" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="499" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="513" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="500" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="514" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="515" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="516" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="501" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="486" priority="502" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="485" priority="503" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="517" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="483" priority="518" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="504" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="483" priority="505" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="519" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="520" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="506" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="481" priority="507" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q7">
+  <conditionalFormatting sqref="Q8">
     <cfRule type="cellIs" dxfId="480" priority="482" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10652,7 +10696,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8">
+  <conditionalFormatting sqref="R5:S5">
     <cfRule type="cellIs" dxfId="467" priority="469" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10693,7 +10737,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:S5">
+  <conditionalFormatting sqref="T5">
     <cfRule type="cellIs" dxfId="454" priority="456" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10734,7 +10778,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T5">
+  <conditionalFormatting sqref="Q9:T9">
     <cfRule type="cellIs" dxfId="441" priority="443" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10775,7 +10819,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q9:T9">
+  <conditionalFormatting sqref="Q14:Q17">
     <cfRule type="cellIs" dxfId="428" priority="430" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10816,48 +10860,48 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q14:Q17">
-    <cfRule type="cellIs" dxfId="415" priority="417" operator="equal">
+  <conditionalFormatting sqref="Q13 S13">
+    <cfRule type="cellIs" dxfId="415" priority="404" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="405" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="406" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="407" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="408" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="409" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="423" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="424" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="407" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="410" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="408" priority="411" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="407" priority="412" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="426" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="413" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="405" priority="414" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="428" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="415" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="403" priority="416" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q13 S13">
+  <conditionalFormatting sqref="T13 T17">
     <cfRule type="cellIs" dxfId="402" priority="391" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10898,7 +10942,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T13 T17">
+  <conditionalFormatting sqref="R17:S17">
     <cfRule type="cellIs" dxfId="389" priority="378" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10939,7 +10983,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R17:S17">
+  <conditionalFormatting sqref="R10:R13">
     <cfRule type="cellIs" dxfId="376" priority="365" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -10980,7 +11024,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R10:R13">
+  <conditionalFormatting sqref="G13:G17 E17:G17">
     <cfRule type="cellIs" dxfId="363" priority="352" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11021,7 +11065,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G17 E17:G17">
+  <conditionalFormatting sqref="D13:G13 D17">
     <cfRule type="cellIs" dxfId="350" priority="339" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11062,7 +11106,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:G13 D17">
+  <conditionalFormatting sqref="G5:G8">
     <cfRule type="cellIs" dxfId="337" priority="326" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11103,7 +11147,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G8">
+  <conditionalFormatting sqref="E9:G9">
     <cfRule type="cellIs" dxfId="324" priority="313" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11144,7 +11188,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9:G9">
+  <conditionalFormatting sqref="D5 D9">
     <cfRule type="cellIs" dxfId="311" priority="300" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11185,7 +11229,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5 D9">
+  <conditionalFormatting sqref="D6:D8">
     <cfRule type="cellIs" dxfId="298" priority="287" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11267,7 +11311,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D8">
+  <conditionalFormatting sqref="C10:C12">
     <cfRule type="cellIs" dxfId="272" priority="261" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11308,7 +11352,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C12">
+  <conditionalFormatting sqref="D14:D16">
     <cfRule type="cellIs" dxfId="259" priority="248" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11390,7 +11434,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D16">
+  <conditionalFormatting sqref="C5:C8">
     <cfRule type="cellIs" dxfId="233" priority="222" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11431,7 +11475,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C8">
+  <conditionalFormatting sqref="B10:B12">
     <cfRule type="cellIs" dxfId="220" priority="209" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11472,7 +11516,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B12">
+  <conditionalFormatting sqref="C14:C17">
     <cfRule type="cellIs" dxfId="207" priority="196" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11513,7 +11557,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C17">
+  <conditionalFormatting sqref="T6 T8">
     <cfRule type="cellIs" dxfId="194" priority="183" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11554,7 +11598,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T6 T8">
+  <conditionalFormatting sqref="T14 T16">
     <cfRule type="cellIs" dxfId="181" priority="170" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11595,7 +11639,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T14 T16">
+  <conditionalFormatting sqref="U5:U8">
     <cfRule type="cellIs" dxfId="168" priority="157" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11636,7 +11680,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U8">
+  <conditionalFormatting sqref="V10:V12">
     <cfRule type="cellIs" dxfId="155" priority="144" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11677,7 +11721,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V10:V12">
+  <conditionalFormatting sqref="U14:U17">
     <cfRule type="cellIs" dxfId="142" priority="131" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11718,7 +11762,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U14:U17">
+  <conditionalFormatting sqref="S6 S8">
     <cfRule type="cellIs" dxfId="129" priority="118" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11759,7 +11803,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S6 S8">
+  <conditionalFormatting sqref="R7:T7">
     <cfRule type="cellIs" dxfId="116" priority="105" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11800,7 +11844,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R7:T7">
+  <conditionalFormatting sqref="S11 U11">
     <cfRule type="cellIs" dxfId="103" priority="92" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11841,7 +11885,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S11 U11">
+  <conditionalFormatting sqref="T10:T12">
     <cfRule type="cellIs" dxfId="90" priority="79" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11882,7 +11926,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T10:T12">
+  <conditionalFormatting sqref="S14 S16">
     <cfRule type="cellIs" dxfId="77" priority="66" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11923,7 +11967,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S14 S16">
+  <conditionalFormatting sqref="R15:T15">
     <cfRule type="cellIs" dxfId="64" priority="53" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -11964,7 +12008,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R15:T15">
+  <conditionalFormatting sqref="K6:M6">
     <cfRule type="cellIs" dxfId="51" priority="40" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -12005,7 +12049,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:M6">
+  <conditionalFormatting sqref="K16:M16">
     <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -12046,7 +12090,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:M16">
+  <conditionalFormatting sqref="K14:M15">
     <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
       <formula>10</formula>
     </cfRule>
@@ -12087,7 +12131,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:M15">
+  <conditionalFormatting sqref="N5:N17">
     <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>10</formula>
     </cfRule>

--- a/04_memo/map13.xlsx
+++ b/04_memo/map13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\チーム制作\Graduation\04_memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E090CB0D-F0CE-4E2D-A1B0-1124B061EFE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570088DB-6FF8-495A-8AC8-42B2E5E0FC0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C7BDA5DA-34EB-4FCF-82F5-5A002EE4A89E}"/>
   </bookViews>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1383,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
@@ -1527,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V10" s="1">
         <v>0</v>
@@ -1713,10 +1713,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -1770,10 +1770,10 @@
         <v>1</v>
       </c>
       <c r="U11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="W11" s="1">
         <v>1</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
